--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -134,7 +134,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:50 AM</t>
+    <t>Saturday, 20 September, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -62,15 +62,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -134,7 +149,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:59 AM</t>
+    <t>Saturday, 20 September, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -858,7 +873,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -867,14 +882,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -884,14 +899,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -900,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -917,14 +932,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -933,31 +948,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -966,14 +981,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -983,49 +998,82 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>160.55000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>42</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>352.55000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1117,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -59,18 +77,12 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -80,6 +92,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -92,9 +113,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -149,7 +167,19 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:17 AM</t>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 20 September, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -840,7 +870,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -849,31 +879,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -882,31 +912,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,28 +945,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -948,31 +978,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,14 +1011,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -998,14 +1028,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,14 +1044,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1031,49 +1061,148 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>352.55000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>53</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>451.00999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1251,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -134,6 +143,39 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -179,7 +221,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:36 AM</t>
+    <t>Saturday, 20 September, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,7 +994,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,11 +1004,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -978,14 +1020,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,11 +1037,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1011,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1035,7 +1077,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1051,7 +1093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,14 +1103,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,31 +1119,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,31 +1152,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,66 +1185,198 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>451.00999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>56</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>64</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>67</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>592.29499999999996</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1440,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -92,15 +92,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -143,25 +134,16 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>23.2650</t>
-  </si>
-  <si>
-    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
   </si>
   <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
@@ -191,9 +173,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -221,7 +200,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:47 AM</t>
+    <t>Saturday, 20 September, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,7 +973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1004,11 +983,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1020,14 +999,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1037,11 +1016,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1053,14 +1032,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1077,7 +1056,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1093,7 +1072,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1103,11 +1082,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1119,14 +1098,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,14 +1115,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1152,14 +1131,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1169,11 +1148,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1185,28 +1164,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1218,20 +1197,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1242,7 +1221,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1279,104 +1258,38 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c t="s" r="C20" s="8">
+      <c r="P20" s="13">
+        <v>829.00999999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
         <v>63</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c t="s" r="H20" s="9">
-        <v>60</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c t="s" r="L20" s="10">
-        <v>19</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c t="s" r="N20" s="8">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
         <v>64</v>
       </c>
-      <c r="O20" s="8"/>
-      <c t="s" r="P20" s="11">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
         <v>65</v>
       </c>
-      <c t="s" r="Q20" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c t="s" r="C21" s="8">
-        <v>66</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c t="s" r="H21" s="9">
-        <v>67</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c t="s" r="L21" s="10">
-        <v>19</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c t="s" r="N21" s="8">
-        <v>68</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c t="s" r="P21" s="11">
-        <v>69</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>592.29499999999996</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>70</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>71</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>72</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1450,20 +1363,10 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:58 AM</t>
+    <t>Saturday, 20 September, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -116,36 +116,69 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:3</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>5.2800</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -170,24 +203,39 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -200,7 +248,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:25 AM</t>
+    <t>Saturday, 20 September, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1071,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1032,14 +1080,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1097,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1155,7 +1203,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1171,24 +1219,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1204,21 +1252,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1230,66 +1278,231 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>50</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>50</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>50</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>829.00999999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>63</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>64</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>65</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>76</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>901.97000000000003</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1576,35 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:11 PM</t>
+    <t>Saturday, 20 September, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>5.2800</t>
   </si>
   <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>357.00</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -224,7 +242,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -248,7 +269,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:22 PM</t>
+    <t>Saturday, 20 September, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,11 +1151,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1219,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1316,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1311,31 +1332,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,20 +1365,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1368,7 +1389,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1384,7 +1405,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,14 +1415,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1431,10 +1452,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1460,49 +1481,115 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
       </c>
-      <c t="s" r="Q24" s="12">
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>901.97000000000003</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>79</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>81</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1047.53</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1688,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -179,6 +197,30 @@
     <t>357.0000</t>
   </si>
   <si>
+    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -197,6 +239,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>MUCOTEC 300MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -221,6 +272,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -269,7 +332,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:39 PM</t>
+    <t>Saturday, 20 September, 2025 12:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,21 +1006,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -969,31 +1032,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1002,14 +1065,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1019,14 +1082,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1042,7 +1105,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1052,11 +1115,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1068,14 +1131,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1101,14 +1164,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1141,7 +1204,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1151,14 +1214,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1167,14 +1230,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1207,7 +1270,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,11 +1280,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1233,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,11 +1313,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1266,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1346,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1306,7 +1369,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1323,7 +1386,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1405,24 +1468,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1438,13 +1501,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1455,7 +1518,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1471,24 +1534,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1510,7 +1573,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1518,7 +1581,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1530,66 +1593,264 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>88</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>22</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>89</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1047.53</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>86</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>87</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>88</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>91</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>22</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>92</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>94</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>46</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>22</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>95</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>46</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>22</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>101</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>22</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>102</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>104</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>22</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1412.1400000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>107</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>108</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>109</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1959,40 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:41 PM</t>
+    <t>Saturday, 20 September, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -320,6 +332,15 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>شامبو مينك 700 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -332,7 +353,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:42 PM</t>
+    <t>Saturday, 20 September, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1699,7 +1720,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,7 +1746,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,49 +1829,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1412.1400000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>107</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>46</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>22</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>108</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>111</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>22</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>112</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1512.1400000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>114</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>115</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>116</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1989,10 +2076,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 12:44 PM</t>
+    <t>Saturday, 20 September, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -167,6 +179,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
@@ -224,9 +248,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -353,7 +374,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 1:53 PM</t>
+    <t>Saturday, 20 September, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,7 +1048,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1037,14 +1058,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1053,31 +1074,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1086,20 +1107,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1110,7 +1131,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1119,14 +1140,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1143,7 +1164,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1152,14 +1173,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1209,7 +1230,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1242,7 +1263,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1251,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1275,7 +1296,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1291,7 +1312,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1317,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1334,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1350,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1416,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1473,7 +1494,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1499,14 +1520,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,11 +1553,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1605,7 +1626,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1621,7 +1642,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,11 +1652,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1647,31 +1668,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,20 +1701,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1704,7 +1725,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1726,7 +1747,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1737,7 +1758,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1753,13 +1774,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1770,7 +1791,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,24 +1807,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,20 +1833,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1833,10 +1854,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1866,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,66 +1899,132 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1512.1400000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>114</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>50</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>26</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>115</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>116</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>118</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>26</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>119</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1549.6400000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>121</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>122</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>123</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2086,10 +2173,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 2:14 PM</t>
+    <t>Saturday, 20 September, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -374,7 +383,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 2:46 PM</t>
+    <t>Saturday, 20 September, 2025 2:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,7 +1717,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,31 +1743,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,7 +1816,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1857,7 +1866,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1906,7 +1915,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -1972,7 +1981,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1982,49 +1991,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1549.6400000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>121</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>26</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>122</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>123</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1697.6400000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>124</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>125</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>126</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2183,10 +2225,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 2:49 PM</t>
+    <t>Saturday, 20 September, 2025 2:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -323,6 +332,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
@@ -383,7 +404,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 2:50 PM</t>
+    <t>Saturday, 20 September, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,7 +1111,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1100,11 +1121,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -1116,28 +1137,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -1149,20 +1170,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1173,7 +1194,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,14 +1203,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1206,7 +1227,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1215,14 +1236,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1272,7 +1293,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1305,7 +1326,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1314,14 +1335,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1338,7 +1359,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1354,7 +1375,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1387,7 +1408,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,14 +1418,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,14 +1434,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1437,7 +1458,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1453,7 +1474,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1463,11 +1484,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1479,14 +1500,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1519,7 +1540,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,11 +1550,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1545,14 +1566,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,14 +1583,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,14 +1599,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,11 +1616,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1611,14 +1632,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,7 +1649,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1651,7 +1672,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1684,7 +1705,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1715,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1750,7 +1771,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,14 +1781,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,31 +1797,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,20 +1830,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1833,7 +1854,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1849,24 +1870,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,20 +1896,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1899,7 +1920,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1915,24 +1936,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,20 +1962,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1962,10 +1983,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,31 +1995,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,66 +2028,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1697.6400000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>124</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>30</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>125</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>126</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>127</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>128</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>30</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>129</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1863.6400000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>131</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>132</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>133</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2230,10 +2317,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -404,7 +404,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 2:54 PM</t>
+    <t>Saturday, 20 September, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -188,6 +200,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -209,6 +233,15 @@
     <t>133.0000</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -221,6 +254,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -272,10 +314,13 @@
     <t>MUCOTEC 300MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
   </si>
   <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
@@ -290,6 +335,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>STARKOPREX 5MG 30 TABS</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -335,13 +389,10 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
+    <t>80.0000</t>
   </si>
   <si>
     <t>رول اون ريكسونا25</t>
@@ -398,13 +449,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 20 September, 2025 2:55 PM</t>
+    <t>Saturday, 20 September, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1326,7 +1371,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1335,14 +1380,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1359,7 +1404,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1385,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1401,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1418,11 +1463,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1434,14 +1479,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1458,7 +1503,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1474,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,11 +1529,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1500,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1517,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1550,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1566,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1590,7 +1635,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,7 +1668,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1639,7 +1684,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1649,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1665,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1682,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1698,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1715,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1731,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1748,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1837,24 +1882,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,31 +1908,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,28 +1941,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1929,31 +1974,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,7 +2007,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1975,18 +2020,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2045,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2061,7 +2106,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2078,14 +2123,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,49 +2156,247 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>128</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>129</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>30</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>130</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1863.6400000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>131</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>132</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>22</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>30</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>133</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>135</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>30</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>123</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>138</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>139</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>30</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>140</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>141</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>22</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>30</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>142</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>144</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>145</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>30</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>65</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2350.2600000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>146</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>147</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>148</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2327,10 +2570,40 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -236,12 +245,18 @@
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -284,6 +299,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -449,7 +473,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 5:07 PM</t>
+    <t>Saturday, 20 September, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1378,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1388,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1421,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1437,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,14 +1454,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1453,7 +1477,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1470,7 +1494,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1486,7 +1510,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1519,7 +1543,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,11 +1553,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1545,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1602,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1618,7 +1642,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1635,7 +1659,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1651,7 +1675,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,11 +1718,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1751,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,11 +1784,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1776,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,11 +1916,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1908,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,11 +1949,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1965,7 +1989,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1981,7 +2005,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,11 +2015,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2048,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,14 +2064,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2081,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,31 +2097,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,7 +2130,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2119,18 +2143,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,31 +2163,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2205,7 +2229,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2222,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>37</v>
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,11 +2312,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2304,7 +2328,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,49 +2378,148 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2350.2600000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>146</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>147</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>30</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>148</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>30</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>150</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>152</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>153</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>30</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>68</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2608.2600000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>154</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>155</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>156</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2600,10 +2723,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -359,6 +368,9 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>STARKOPREX 5MG 30 TABS</t>
   </si>
   <si>
@@ -473,7 +485,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 5:11 PM</t>
+    <t>Saturday, 20 September, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2083,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2121,7 +2133,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2147,11 +2159,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2196,28 +2208,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2229,31 +2241,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2291,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,11 +2357,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>37</v>
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,7 +2439,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2444,14 +2456,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,49 +2489,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>22</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>30</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>154</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>156</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>157</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>30</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>68</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2608.2600000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>154</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>155</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>156</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2706.7800000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>158</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>159</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>160</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2738,10 +2816,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -65,27 +65,30 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -146,6 +149,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -179,9 +194,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
   </si>
   <si>
@@ -323,9 +335,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -362,12 +371,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -389,6 +392,12 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -458,9 +467,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -485,7 +491,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 5:33 PM</t>
+    <t>Saturday, 20 September, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1176,7 +1182,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1209,7 +1215,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1218,14 +1224,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1235,14 +1241,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1251,31 +1257,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1284,14 +1290,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1301,14 +1307,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1317,14 +1323,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1334,11 +1340,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1350,14 +1356,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1367,11 +1373,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1383,14 +1389,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1400,14 +1406,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1416,14 +1422,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1449,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,14 +1472,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1489,7 +1495,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,14 +1505,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,14 +1538,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1587,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1605,7 +1611,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,7 +1644,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1654,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1664,14 +1670,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1680,14 +1686,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1770,7 +1776,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1786,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1802,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1812,7 +1818,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1869,7 +1875,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1885,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1935,7 +1941,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1951,7 +1957,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,11 +1967,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2017,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,11 +2033,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,11 +2066,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2083,7 +2089,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2116,7 +2122,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,7 +2188,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,31 +2280,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,31 +2313,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,31 +2379,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,31 +2412,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,31 +2445,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,31 +2478,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2505,7 +2511,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2518,18 +2524,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,66 +2544,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2706.7800000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>155</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>22</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>31</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>156</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>158</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
         <v>159</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>31</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>72</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2810.3099999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>160</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2826,10 +2898,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:16 PM</t>
+    <t>Saturday, 20 September, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 12 SUPP.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>MUCOTEC 300MG 20 CAPS.</t>
   </si>
   <si>
+    <t xml:space="preserve">NOCHEL  TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -431,6 +449,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -491,7 +521,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:18 PM</t>
+    <t>Saturday, 20 September, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2040,7 +2070,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,11 +2096,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,11 +2129,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2122,13 +2152,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2139,7 +2169,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2185,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,7 +2277,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2264,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2287,7 +2317,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2337,7 +2367,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2353,21 +2383,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2379,31 +2409,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2436,7 +2466,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2452,7 +2482,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2502,7 +2532,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2518,7 +2548,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2577,7 +2607,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,49 +2657,148 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>162</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>163</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>31</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>164</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>22</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>31</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>166</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>169</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>31</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>72</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>73</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2810.3099999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>160</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>161</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>162</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3173.8099999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>170</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>171</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>172</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +3037,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -338,12 +347,6 @@
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -521,7 +524,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:21 PM</t>
+    <t>Saturday, 20 September, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1624,7 +1627,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1657,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,11 +1670,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1683,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1740,7 +1743,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1756,7 +1759,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1766,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1802,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,7 +1825,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,11 +1835,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1848,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1921,7 +1924,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,11 +1934,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1947,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1987,7 +1990,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2096,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,11 +2132,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2158,18 +2161,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,31 +2181,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,7 +2214,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2228,11 +2231,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2244,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,11 +2297,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2317,7 +2320,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2409,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,31 +2445,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,14 +2511,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,14 +2528,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,14 +2561,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,14 +2577,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,7 +2643,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2657,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,14 +2709,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,11 +2726,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2739,14 +2742,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,49 +2759,82 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3173.8099999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>170</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>31</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>75</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3225.8099999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
         <v>171</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>172</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>173</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3052,10 +3088,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.05% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>126.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -329,6 +338,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>322.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -524,7 +542,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:34 PM</t>
+    <t>Saturday, 20 September, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1182,7 +1200,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1191,14 +1209,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1208,14 +1226,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1248,7 +1266,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1275,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1281,7 +1299,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1297,24 +1315,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1323,31 +1341,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1356,14 +1374,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1373,14 +1391,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1396,7 +1414,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1479,7 +1497,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1495,7 +1513,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,14 +1523,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,14 +1556,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1578,7 +1596,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1594,7 +1612,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1611,7 +1629,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1627,7 +1645,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1644,7 +1662,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1660,7 +1678,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1695,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1711,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1776,7 +1794,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1792,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,7 +1876,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1908,7 +1926,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1924,7 +1942,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1941,7 +1959,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1957,7 +1975,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2007,7 +2025,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2023,7 +2041,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,31 +2199,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2254,13 +2272,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2271,7 +2289,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2287,7 +2305,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2419,7 +2437,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2469,7 +2487,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2485,24 +2503,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,31 +2529,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2595,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,31 +2628,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,31 +2661,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,31 +2694,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,20 +2727,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2730,10 +2748,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,31 +2760,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2788,53 +2806,119 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3225.8099999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>171</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>26</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>34</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>173</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>34</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>78</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3590.8099999999999</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>177</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>178</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>179</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3093,10 +3177,20 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:37 PM</t>
+    <t>Saturday, 20 September, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -77,15 +77,18 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
     <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>322.00</t>
   </si>
   <si>
-    <t>322.0000</t>
+    <t>966.0000</t>
   </si>
   <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
@@ -542,7 +542,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:38 PM</t>
+    <t>Saturday, 20 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1266,7 +1266,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1275,14 +1275,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1292,11 +1292,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1325,11 +1325,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1341,28 +1341,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1391,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1424,11 +1424,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1440,14 +1440,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1473,14 +1473,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1506,14 +1506,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,11 +1523,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1539,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1638,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1688,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1843,7 +1843,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1942,7 +1942,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1975,7 +1975,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2074,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2091,7 +2091,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2140,7 +2140,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2173,7 +2173,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2206,7 +2206,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2239,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2272,13 +2272,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2381,11 +2381,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2404,7 +2404,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2470,7 +2470,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2575,7 +2575,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2602,13 +2602,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2619,7 +2619,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2641,7 +2641,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2674,7 +2674,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2685,7 +2685,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2707,7 +2707,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2734,13 +2734,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2751,7 +2751,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2767,13 +2767,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2784,7 +2784,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2806,7 +2806,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2833,13 +2833,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2872,7 +2872,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2888,7 +2888,7 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="P59" s="13">
-        <v>3590.8099999999999</v>
+        <v>4234.8100000000004</v>
       </c>
       <c r="Q59" s="13"/>
     </row>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -449,6 +449,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -542,7 +551,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:46 PM</t>
+    <t>Saturday, 20 September, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2569,7 +2578,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2751,7 +2760,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2866,7 +2875,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2876,49 +2885,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>179</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>35</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>78</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>4234.8100000000004</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>177</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>178</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>179</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>4409.8100000000004</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>180</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>181</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>182</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3187,10 +3229,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -551,7 +551,28 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:50 PM</t>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 20 September, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2929,38 +2950,104 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>4409.8100000000004</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>180</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>35</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>181</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>184</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>35</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>185</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>4444.8100000000004</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>187</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>188</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>189</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3234,10 +3321,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -572,7 +572,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:51 PM</t>
+    <t>Saturday, 20 September, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -362,6 +371,18 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
@@ -494,9 +515,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -563,16 +581,13 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 6:52 PM</t>
+    <t>Saturday, 20 September, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,7 +1855,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1850,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1972,7 +1987,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2038,7 +2053,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2048,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2121,7 +2136,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2137,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,31 +2310,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2361,31 +2376,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2411,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,7 +2508,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2592,24 +2607,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2638,7 +2653,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2649,7 +2664,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,7 +2697,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,7 +2730,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2731,7 +2746,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2781,7 +2796,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2797,7 +2812,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2807,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>42</v>
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2877,10 +2892,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,7 +2904,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2939,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,49 +3020,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>186</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>4444.8100000000004</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>35</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>187</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>189</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>121</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>35</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>190</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>4510.8100000000004</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>192</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>193</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>194</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3331,10 +3412,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:00 PM</t>
+    <t>Saturday, 20 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:01 PM</t>
+    <t>Saturday, 20 September, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 100MG 5 SUPP</t>
   </si>
   <si>
@@ -236,9 +257,6 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>99.0000</t>
   </si>
   <si>
@@ -359,9 +377,6 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -425,6 +440,24 @@
     <t>59.5200</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -443,6 +476,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -485,12 +527,6 @@
     <t>32:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -542,7 +578,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -587,7 +623,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:04 PM</t>
+    <t>Saturday, 20 September, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,18 +1435,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1419,20 +1455,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1443,7 +1479,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1452,14 +1488,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1476,7 +1512,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1485,14 +1521,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1542,7 +1578,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1558,7 +1594,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1575,7 +1611,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1608,7 +1644,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1624,7 +1660,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,14 +1670,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1650,14 +1686,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1690,7 +1726,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1700,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,14 +1769,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,11 +1802,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1782,14 +1818,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,11 +1835,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1815,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1884,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,11 +1901,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1950,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1947,7 +1983,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1964,11 +2000,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1980,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2020,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2053,7 +2089,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2086,7 +2122,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,11 +2132,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2112,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2129,11 +2165,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2169,7 +2205,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2268,7 +2304,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2317,7 +2353,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,31 +2412,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,11 +2462,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2442,31 +2478,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2515,7 +2551,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2627,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2628,7 +2664,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,31 +2709,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,28 +2742,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2739,7 +2775,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2752,18 +2788,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,31 +2808,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2841,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,28 +2874,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2871,31 +2907,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,7 +2940,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2917,18 +2953,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,31 +2973,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +3006,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,28 +3039,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3036,31 +3072,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,66 +3105,231 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>191</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>4510.8100000000004</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>39</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>192</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>193</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>27</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>39</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>194</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>197</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>39</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>84</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>39</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>199</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>201</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>126</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>39</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>202</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>4875.5050000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>204</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>205</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>206</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3422,10 +3623,35 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -413,6 +422,15 @@
     <t>MUCOTEC 300MG 20 CAPS.</t>
   </si>
   <si>
+    <t>NAPIZOLE 20MG 14 CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOCHEL  TAB</t>
   </si>
   <si>
@@ -623,7 +641,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:06 PM</t>
+    <t>Saturday, 20 September, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1579,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1571,11 +1589,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1627,7 +1645,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1653,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1693,7 +1711,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1703,14 +1721,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1776,7 +1794,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1792,7 +1810,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1809,7 +1827,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1825,7 +1843,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1858,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1868,11 +1886,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,7 +1919,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1924,7 +1942,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2023,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2089,7 +2107,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2122,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2188,7 +2206,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2271,7 +2289,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2287,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2304,7 +2322,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2412,7 +2430,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2478,7 +2496,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2491,18 +2509,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,7 +2553,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2551,13 +2569,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2568,7 +2586,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2601,7 +2619,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2617,7 +2635,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2650,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2782,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2799,7 +2817,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2815,7 +2833,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2865,7 +2883,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2881,21 +2899,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2907,31 +2925,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2957,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3023,7 +3041,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3063,7 +3081,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3079,7 +3097,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>46</v>
@@ -3105,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3159,10 +3177,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3188,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3221,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3270,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,49 +3305,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>4875.5050000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>204</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>39</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>205</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>207</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>129</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>39</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>208</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>4961.2650000000003</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3648,10 +3732,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:07 PM</t>
+    <t>Saturday, 20 September, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -290,43 +290,34 @@
     <t>3.8400</t>
   </si>
   <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>4:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>22.00</t>
@@ -2008,7 +1999,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2009,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2034,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2140,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2206,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2207,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2232,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2289,7 +2280,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,7 +2296,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2322,7 +2313,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2338,7 +2329,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,11 +2405,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2430,7 +2421,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2447,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2461,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,11 +2471,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2496,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2536,13 +2527,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2569,13 +2560,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2586,7 +2577,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2635,7 +2626,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2652,7 +2643,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2668,7 +2659,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,7 +2669,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2711,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2727,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2735,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2760,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,7 +2808,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2833,7 +2824,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2866,7 +2857,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,11 +2867,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2892,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,20 +2916,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2949,7 +2940,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2965,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +2966,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2991,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3031,7 +3022,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3032,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3147,7 +3138,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3173,14 +3164,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,14 +3197,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,7 +3220,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3230,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3262,7 +3253,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3263,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3296,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3328,7 +3319,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3349,71 +3340,38 @@
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="A70" s="7">
-        <v>64</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c t="s" r="C70" s="8">
+      <c r="P70" s="13">
+        <v>4935.2650000000003</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>207</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c t="s" r="H70" s="9">
-        <v>129</v>
-      </c>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c t="s" r="L70" s="10">
-        <v>39</v>
-      </c>
-      <c r="M70" s="10"/>
-      <c t="s" r="N70" s="8">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
         <v>208</v>
       </c>
-      <c r="O70" s="8"/>
-      <c t="s" r="P70" s="11">
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
         <v>209</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>4961.2650000000003</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>211</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>212</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3737,15 +3695,10 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>192.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -431,6 +440,15 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -632,7 +650,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:10 PM</t>
+    <t>Saturday, 20 September, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1423,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,11 +1433,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1431,14 +1449,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1455,7 +1473,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1477,18 +1495,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1497,20 +1515,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1521,7 +1539,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1530,14 +1548,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1554,7 +1572,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1570,7 +1588,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1603,7 +1621,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1613,11 +1631,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1669,7 +1687,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1679,14 +1697,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1695,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1735,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1818,7 +1836,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1834,7 +1852,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1851,7 +1869,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1867,7 +1885,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1900,7 +1918,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,7 +1961,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1966,7 +1984,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2016,7 +2034,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2032,7 +2050,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2098,7 +2116,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,11 +2126,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2197,7 +2215,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,11 +2225,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2280,7 +2298,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2313,7 +2331,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2461,7 +2479,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,13 +2545,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2560,13 +2578,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2577,7 +2595,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,7 +2611,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2626,7 +2644,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2643,7 +2661,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,11 +2720,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,11 +2819,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2824,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2841,7 +2859,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2857,7 +2875,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2907,7 +2925,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2923,21 +2941,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2949,31 +2967,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,7 +3000,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2995,18 +3013,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,31 +3033,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,31 +3066,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3094,7 +3112,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3105,7 +3123,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3121,24 +3139,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,20 +3198,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3201,10 +3219,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,7 +3231,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3226,18 +3244,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3259,15 +3277,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3279,28 +3297,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3312,66 +3330,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4935.2650000000003</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>207</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>43</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>208</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>129</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>43</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>211</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>5007.2650000000003</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>213</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>214</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>215</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3695,10 +3779,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -512,6 +512,12 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -650,7 +656,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:23 PM</t>
+    <t>Saturday, 20 September, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2908,7 +2914,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2922,10 +2928,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2974,7 +2980,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +2990,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,31 +3006,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,11 +3056,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3073,7 +3079,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3172,7 +3178,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,7 +3237,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3271,7 +3277,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3318,7 +3324,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3370,7 +3376,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,11 +3386,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,49 +3419,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>5007.2650000000003</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>129</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>43</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>213</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>5069.2650000000003</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>215</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>216</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>217</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3789,10 +3828,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -560,6 +560,12 @@
     <t>32:0</t>
   </si>
   <si>
+    <t>بودره اطفال نونو 100ملل</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -599,6 +605,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>زيت نونو 200مل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -632,6 +647,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>شامبو نونو300ملل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -656,7 +680,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:24 PM</t>
+    <t>Saturday, 20 September, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3136,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3211,7 +3235,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,7 +3294,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3310,7 +3334,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3409,7 +3433,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3442,7 +3466,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3463,38 +3487,137 @@
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>5069.2650000000003</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>215</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
         <v>216</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>43</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>90</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>217</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>43</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>218</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>129</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>43</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>5269.2650000000003</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>223</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>224</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>225</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3833,10 +3956,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -680,7 +680,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:27 PM</t>
+    <t>Saturday, 20 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3136,7 +3136,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3301,7 +3301,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3466,7 +3466,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -59,6 +59,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -308,12 +317,18 @@
     <t>133.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
   </si>
   <si>
@@ -326,9 +341,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -680,7 +692,13 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:29 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>Saturday, 20 September, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1372,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1364,14 +1382,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1380,14 +1398,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1397,14 +1415,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1413,14 +1431,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1430,14 +1448,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1446,14 +1464,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1463,11 +1481,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1519,7 +1537,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1529,14 +1547,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1545,31 +1563,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1578,31 +1596,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1635,7 +1653,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1651,7 +1669,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1668,7 +1686,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1734,7 +1752,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1750,7 +1768,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1816,7 +1834,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,14 +1877,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,14 +1893,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1899,7 +1917,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1915,7 +1933,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1932,7 +1950,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1948,7 +1966,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1981,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2007,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,7 +2042,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2047,7 +2065,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2097,7 +2115,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2113,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2238,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2255,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2354,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2443,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2526,7 +2544,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2592,7 +2610,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2608,24 +2626,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,31 +2685,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,11 +2999,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2997,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,28 +3081,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3096,31 +3114,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,24 +3147,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3169,24 +3187,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,31 +3213,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,31 +3246,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,31 +3312,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,31 +3345,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,31 +3378,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,31 +3444,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,28 +3477,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3492,28 +3510,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3525,28 +3543,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3558,66 +3576,165 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>46</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>222</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>5269.2650000000003</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>224</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>133</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>46</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>225</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>228</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>46</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>157</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>5417.2650000000003</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>229</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>230</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>231</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3971,10 +4088,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:40 PM</t>
+    <t>Saturday, 20 September, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -365,6 +374,18 @@
     <t>357.0000</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -395,6 +416,12 @@
     <t>966.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -497,6 +524,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -698,7 +734,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:44 PM</t>
+    <t>Saturday, 20 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1804,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1801,7 +1837,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1847,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1867,7 +1903,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1913,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1950,7 +1986,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1966,7 +2002,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1983,7 +2019,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1999,7 +2035,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2032,7 +2068,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,11 +2078,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,7 +2111,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2098,7 +2134,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2148,7 +2184,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2164,7 +2200,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2197,7 +2233,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2263,7 +2299,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2296,7 +2332,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2362,7 +2398,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2408,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2388,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2412,7 +2448,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2428,7 +2464,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2490,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2507,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2523,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,14 +2606,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2622,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2639,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2705,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2685,31 +2721,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,11 +2771,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2775,7 +2811,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2791,13 +2827,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2808,7 +2844,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2824,7 +2860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2841,7 +2877,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2857,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2890,7 +2926,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2936,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2969,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,7 +3084,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3065,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,31 +3183,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3187,21 +3223,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3213,28 +3249,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3246,31 +3282,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3348,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,11 +3398,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3378,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3431,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3435,7 +3471,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3451,7 +3487,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,7 +3534,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3510,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,11 +3563,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3543,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,14 +3596,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,14 +3645,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,11 +3662,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3642,14 +3678,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,11 +3695,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3675,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,49 +3728,181 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>5417.2650000000003</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>229</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>230</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>231</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>232</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>46</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>96</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>12</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>46</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>234</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>236</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>142</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>46</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>237</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>239</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>240</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>46</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>166</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>5593.6750000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>241</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>242</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>243</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4103,10 +4271,30 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -68,6 +68,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -734,7 +743,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:46 PM</t>
+    <t>Saturday, 20 September, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1450,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1484,14 +1493,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1606,7 +1615,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1632,31 +1641,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1665,31 +1674,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1722,7 +1731,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1755,7 +1764,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1837,7 +1846,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1854,7 +1863,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1870,7 +1879,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2019,7 +2028,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2035,7 +2044,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2068,7 +2077,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2101,7 +2110,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,11 +2120,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,7 +2153,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2167,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2365,7 +2374,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2398,7 +2407,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2431,7 +2440,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2547,7 +2556,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2705,11 +2714,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2761,7 +2770,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2827,13 +2836,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2860,13 +2869,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2877,7 +2886,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2910,7 +2919,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,7 +2952,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2976,7 +2985,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,7 +3011,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3025,7 +3034,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,7 +3183,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3204,10 +3213,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3256,7 +3265,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,11 +3275,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3308,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,20 +3324,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3339,7 +3348,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3355,21 +3364,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3381,28 +3390,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3454,24 +3463,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,31 +3489,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,31 +3522,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,20 +3555,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3586,13 +3595,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3603,7 +3612,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3619,24 +3628,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,31 +3654,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3685,21 +3694,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3718,13 +3727,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3751,21 +3760,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3777,28 +3786,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3817,13 +3826,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3850,59 +3859,92 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>5593.6750000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>241</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>242</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>243</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>49</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>169</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>5701.6750000000002</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>244</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>245</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>246</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4291,10 +4333,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>COXRITOR 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -275,9 +287,6 @@
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>5.2800</t>
   </si>
   <si>
@@ -479,6 +488,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOCHEL  TAB</t>
   </si>
   <si>
@@ -728,6 +746,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -743,7 +767,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 7:47 PM</t>
+    <t>Saturday, 20 September, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1870,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1856,14 +1880,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1889,11 +1913,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1905,14 +1929,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1929,7 +1953,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1945,7 +1969,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1955,11 +1979,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1995,7 +2019,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2028,7 +2052,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2044,7 +2068,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2110,7 +2134,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2143,7 +2167,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2153,11 +2177,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2186,7 +2210,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2209,7 +2233,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2219,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2259,7 +2283,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2275,7 +2299,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2308,7 +2332,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2407,7 +2431,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2473,7 +2497,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2589,7 +2613,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,7 +2672,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2671,7 +2695,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2747,11 +2771,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2763,7 +2787,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2803,7 +2827,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2869,13 +2893,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2902,7 +2926,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2919,7 +2943,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2935,13 +2959,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2952,7 +2976,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2968,7 +2992,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3001,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3018,7 +3042,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3034,7 +3058,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3067,7 +3091,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3084,7 +3108,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3110,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,11 +3233,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3232,7 +3256,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3246,7 +3270,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3291,7 +3315,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3308,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3348,7 +3372,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3364,21 +3388,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3390,31 +3414,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,7 +3563,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3579,7 +3603,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3595,7 +3619,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3645,7 +3669,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3661,7 +3685,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3671,14 +3695,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3708,10 +3732,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,7 +3744,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3737,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>230</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3760,7 +3784,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,11 +3794,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3793,7 +3817,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,11 +3827,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,11 +3860,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3852,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3869,11 +3893,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3892,7 +3916,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,49 +3926,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>5701.6750000000002</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>245</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>246</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>49</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>243</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>245</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>246</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>148</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>49</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>248</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>250</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>251</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>49</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>175</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5839.6750000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>252</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>253</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>254</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4338,10 +4461,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:25 PM</t>
+    <t>Saturday, 20 September, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -713,6 +713,12 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
     <t>شامبو مينك 700 مل</t>
   </si>
   <si>
@@ -767,7 +773,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:26 PM</t>
+    <t>Saturday, 20 September, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3817,7 +3823,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3831,7 +3837,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3916,7 +3922,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3982,7 +3988,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,49 +4031,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>252</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>253</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>49</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>175</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>176</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5839.6750000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>252</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>253</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5919.6750000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>254</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>255</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>256</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4476,10 +4515,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -506,6 +506,9 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -593,6 +596,9 @@
     <t>124.00</t>
   </si>
   <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -602,10 +608,19 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -773,7 +788,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:27 PM</t>
+    <t>Saturday, 20 September, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2998,24 +3013,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3057,7 +3072,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3262,7 +3277,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,7 +3303,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,7 +3419,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3427,7 +3442,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,31 +3468,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,31 +3501,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3526,7 +3541,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3592,7 +3607,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>37</v>
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>230</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3805,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3823,7 +3838,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,7 +3871,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3881,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3889,7 +3904,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3903,7 +3918,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3955,7 +3970,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4021,7 +4036,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,49 +4079,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>254</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>148</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>49</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>255</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>258</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>49</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>176</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5919.6750000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>254</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>255</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>256</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>6095.6750000000002</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>259</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>260</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>261</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4520,10 +4601,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -275,183 +275,198 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
+  </si>
+  <si>
+    <t>5.2800</t>
+  </si>
+  <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>357.0000</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>966.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
-  </si>
-  <si>
-    <t>5.2800</t>
-  </si>
-  <si>
-    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FORTYMOX PLUS OPHTHALMIC SOL. 5 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIFLOZAMET XR 25/1000 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>357.0000</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>HYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
-  </si>
-  <si>
-    <t>322.00</t>
-  </si>
-  <si>
-    <t>966.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -467,6 +482,15 @@
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -774,12 +798,6 @@
   </si>
   <si>
     <t>معجون اسنان المسوك الصغير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -2106,7 +2124,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2419,7 +2437,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2511,7 +2529,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2528,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2568,7 +2586,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,7 +2619,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2617,7 +2635,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2643,7 +2661,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2676,7 +2694,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2726,11 +2744,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,14 +2777,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2810,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2841,7 +2859,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,14 +2942,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,28 +2991,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3006,28 +3024,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3039,31 +3057,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,31 +3090,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3105,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3138,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3171,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,14 +3206,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3204,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3270,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3338,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,11 +3371,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3369,7 +3387,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3386,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3536,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,31 +3552,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,31 +3585,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3633,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>37</v>
@@ -3732,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,14 +3932,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3963,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3996,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,11 +4031,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4095,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,49 +4163,115 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>6095.6750000000002</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>259</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>260</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>261</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>262</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>153</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>49</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>117</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>263</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>264</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>49</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>184</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>6298.6750000000002</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>265</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>266</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>267</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4611,10 +4695,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:48 PM</t>
+    <t>Saturday, 20 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -275,13 +275,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>79.6800</t>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
@@ -359,9 +362,6 @@
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -377,6 +377,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -479,6 +488,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
@@ -806,7 +821,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:50 PM</t>
+    <t>Saturday, 20 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2124,7 +2139,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2133,7 +2148,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2154,7 +2169,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2166,7 +2181,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2199,7 +2214,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2232,7 +2247,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2253,7 +2268,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2265,7 +2280,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2331,7 +2346,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2385,7 +2400,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>37</v>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2418,7 +2433,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2503,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2520,7 +2535,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2602,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,7 +2792,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2800,7 +2815,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2925,7 +2940,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,28 +3072,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3090,28 +3105,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3123,31 +3138,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,31 +3171,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3361,7 +3376,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,11 +3452,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3453,7 +3468,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3592,7 +3607,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3618,31 +3633,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,31 +3666,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,7 +3706,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,11 +3716,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3757,7 +3772,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>37</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3947,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3955,7 +3970,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3988,7 +4003,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4021,7 +4036,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4054,7 +4069,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4068,7 +4083,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4112,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4120,7 +4135,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,11 +4178,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4186,7 +4201,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4211,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,49 +4244,115 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>6298.6750000000002</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>265</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>266</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>267</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>156</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>49</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>117</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>268</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>269</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>49</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>189</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>6389.2449999999999</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>270</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>271</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>272</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4705,10 +4786,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -119,12 +119,30 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -332,9 +350,6 @@
     <t>5:1</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -377,6 +392,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -530,12 +554,6 @@
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOCHEL  TAB</t>
   </si>
   <si>
@@ -662,18 +680,21 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -749,7 +770,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -821,7 +845,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 8:58 PM</t>
+    <t>Saturday, 20 September, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1717,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1726,7 +1750,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1736,14 +1760,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1752,28 +1776,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1818,31 +1842,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,14 +1875,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1875,7 +1899,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1891,7 +1915,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1901,11 +1925,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1917,14 +1941,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1950,14 +1974,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1967,11 +1991,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2007,7 +2031,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2023,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2049,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2165,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2181,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2205,7 +2229,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2254,7 +2278,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2264,11 +2288,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,11 +2321,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,11 +2387,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2561,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,11 +2717,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,11 +2750,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2815,7 +2839,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2832,7 +2856,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2848,7 +2872,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2971,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3006,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,7 +3162,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3151,18 +3175,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,28 +3195,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,31 +3261,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,31 +3294,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,11 +3443,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,11 +3476,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3475,7 +3499,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3508,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,11 +3575,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3633,7 +3657,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,28 +3723,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3732,31 +3756,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,28 +3789,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3798,31 +3822,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,31 +3855,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,28 +3921,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3930,31 +3954,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,31 +3987,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,31 +4020,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>248</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,28 +4053,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4062,28 +4086,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4095,7 +4119,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4108,18 +4132,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,31 +4152,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,28 +4185,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4194,28 +4218,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4227,20 +4251,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4260,28 +4284,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4306,53 +4330,185 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>6389.2449999999999</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>270</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>55</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>271</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>272</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>273</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>274</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>55</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>271</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>275</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>164</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>55</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>122</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>277</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>55</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>195</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>6759.0749999999998</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>278</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>279</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>280</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4796,10 +4952,30 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -293,90 +302,93 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>143.5200</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
+  </si>
+  <si>
+    <t>5.2800</t>
+  </si>
+  <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
-  </si>
-  <si>
-    <t>5.2800</t>
-  </si>
-  <si>
-    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>133.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -488,9 +500,6 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
     <t>38.6100</t>
   </si>
   <si>
@@ -566,6 +575,9 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -653,9 +665,6 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
-  </si>
-  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -845,7 +854,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:16 PM</t>
+    <t>Saturday, 20 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1792,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1816,7 +1825,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1842,31 +1851,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1875,31 +1884,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1932,7 +1941,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1948,7 +1957,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1981,7 +1990,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,11 +2000,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2064,7 +2073,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2080,7 +2089,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2113,7 +2122,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2179,7 +2188,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2344,7 +2353,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,7 +2396,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2410,7 +2419,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2575,7 +2584,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,11 +2594,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2790,7 +2799,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,7 +2832,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2865,7 +2874,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,7 +2907,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3136,7 +3145,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3153,7 +3162,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3261,28 +3270,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3301,21 +3310,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3327,31 +3336,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3730,7 +3739,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3763,7 +3772,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3838,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3843,10 +3852,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,31 +3864,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3895,21 +3904,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3921,28 +3930,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3954,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3994,24 +4003,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,31 +4029,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,31 +4062,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,20 +4095,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4126,13 +4135,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4143,7 +4152,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,7 +4161,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4165,18 +4174,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4225,21 +4234,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4251,28 +4260,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4291,13 +4300,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4324,21 +4333,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4350,28 +4359,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4390,21 +4399,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4416,28 +4425,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4449,66 +4458,99 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>6759.0749999999998</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>278</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>279</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>280</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>58</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>199</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6986.0749999999998</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5014,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -854,7 +854,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:18 PM</t>
+    <t>Saturday, 20 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -68,6 +68,21 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>ALPHATHROMB 5MG TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -131,6 +143,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -185,9 +209,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -227,9 +248,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -542,9 +560,6 @@
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>43.5600</t>
   </si>
   <si>
@@ -587,6 +602,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -698,6 +719,12 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -854,7 +881,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:23 PM</t>
+    <t>Saturday, 20 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,24 +1588,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1644,7 +1671,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1653,14 +1680,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1670,14 +1697,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1726,7 +1753,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1736,11 +1763,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1752,14 +1779,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1769,14 +1796,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1785,7 +1812,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1802,11 +1829,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1818,14 +1845,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1835,11 +1862,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1884,28 +1911,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1950,20 +1977,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1974,7 +2001,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1990,7 +2017,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2040,7 +2067,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2056,7 +2083,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2139,7 +2166,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2155,7 +2182,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2337,7 +2364,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2386,7 +2413,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2396,11 +2423,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,11 +2456,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2485,7 +2512,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2551,7 +2578,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2683,7 +2710,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2700,7 +2727,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2716,7 +2743,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2749,7 +2776,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2766,7 +2793,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2782,7 +2809,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2815,7 +2842,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,11 +2885,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2931,7 +2958,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3050,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,7 +3106,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3112,7 +3139,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,11 +3149,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,11 +3182,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3211,7 +3238,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,28 +3330,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3336,31 +3363,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3376,13 +3403,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3393,7 +3420,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3409,24 +3436,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,11 +3611,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,11 +3644,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,11 +3710,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3706,7 +3733,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3743,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,14 +3776,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3809,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3798,7 +3825,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3815,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3875,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3864,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3904,24 +3931,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,28 +3957,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3976,18 +4003,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4003,13 +4030,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4017,10 +4044,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,31 +4056,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,31 +4089,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,28 +4122,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4128,31 +4155,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4161,31 +4188,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>257</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,31 +4221,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,28 +4254,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4260,28 +4287,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4293,31 +4320,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4339,18 +4366,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,28 +4386,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4392,28 +4419,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4425,28 +4452,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4458,28 +4485,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4491,66 +4518,198 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>6986.0749999999998</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>281</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>282</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>21</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>283</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>285</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>286</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>21</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>283</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>287</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>173</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>21</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>132</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>288</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>289</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>21</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>206</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>7176.335</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>290</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>291</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>292</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5019,10 +5178,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -545,6 +557,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 12 SUPP.</t>
   </si>
   <si>
@@ -854,9 +875,6 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -881,7 +899,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:31 PM</t>
+    <t>Saturday, 20 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1990,7 +2008,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2023,7 +2041,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2034,7 +2052,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2050,7 +2068,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,11 +2111,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2166,7 +2184,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2182,7 +2200,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2265,7 +2283,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2281,7 +2299,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2331,7 +2349,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,7 +2382,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2710,7 +2728,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2868,7 +2886,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2885,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2943,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,7 +2976,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2974,7 +2992,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,11 +3002,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3000,7 +3018,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3033,7 +3051,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,14 +3134,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3172,7 +3190,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,11 +3233,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3264,7 +3282,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,14 +3365,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,28 +3414,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3429,31 +3447,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3462,31 +3480,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,31 +3513,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,11 +3563,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3726,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3825,7 +3843,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,7 +4074,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4069,18 +4087,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,31 +4107,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,11 +4157,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4228,7 +4246,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>41</v>
@@ -4254,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4327,7 +4345,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>266</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4360,7 +4378,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4407,10 +4425,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4485,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4520,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,11 +4586,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4617,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,49 +4685,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>7176.335</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>290</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>291</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>292</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>177</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>21</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>136</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>295</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>21</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>213</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>7264.335</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>296</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>297</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>298</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5198,10 +5282,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -608,6 +620,15 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -647,6 +668,18 @@
     <t>59.5200</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
@@ -692,6 +725,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -764,7 +806,10 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>32:0</t>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>بودره اطفال نونو 100ملل</t>
@@ -806,9 +851,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -827,10 +869,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -878,18 +920,9 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>31:0</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -899,7 +932,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:38 PM</t>
+    <t>Saturday, 20 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1903,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,14 +1913,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1896,7 +1929,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1913,11 +1946,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1929,14 +1962,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1946,11 +1979,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1962,14 +1995,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1986,7 +2019,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2019,7 +2052,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2041,7 +2074,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2074,7 +2107,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2085,7 +2118,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2101,7 +2134,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2111,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,11 +2177,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2177,11 +2210,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2193,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2217,7 +2250,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2233,7 +2266,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,11 +2309,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2292,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2316,7 +2349,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2365,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,11 +2375,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2358,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2382,7 +2415,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,7 +2448,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,11 +2573,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2556,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,11 +2606,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2672,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2761,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2919,7 +2952,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,7 +3009,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,7 +3042,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,11 +3068,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3051,7 +3084,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,7 +3117,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3101,14 +3134,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,11 +3167,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3150,14 +3183,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3223,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,11 +3266,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,11 +3299,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,11 +3332,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3315,14 +3348,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,11 +3365,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,11 +3431,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,7 +3480,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3464,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3480,28 +3513,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3579,31 +3612,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,11 +3695,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3678,14 +3711,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,11 +3827,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,11 +3893,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,11 +3959,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,7 +4041,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4074,7 +4107,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4091,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,31 +4173,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,28 +4206,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4206,31 +4239,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,31 +4272,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4355,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>41</v>
@@ -4338,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,11 +4388,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4371,14 +4404,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4421,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,14 +4454,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>275</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4520,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4503,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,11 +4553,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4536,7 +4569,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4553,14 +4586,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,14 +4602,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,14 +4619,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,14 +4635,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,11 +4652,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4635,14 +4668,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,11 +4685,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4668,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4718,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4701,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,11 +4751,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4734,14 +4767,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,49 +4784,181 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>7264.335</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>296</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>297</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>298</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>302</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>21</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>204</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>303</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>265</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>21</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>204</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>304</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>181</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>21</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>140</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>305</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>306</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>21</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>224</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>7565.1350000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>307</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>308</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>309</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5292,10 +5457,30 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -251,6 +260,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -557,12 +575,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>MAXICAL D SUSPENSION 120 ML</t>
   </si>
   <si>
@@ -794,6 +806,12 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -932,7 +950,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:43 PM</t>
+    <t>Saturday, 20 September, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,7 +2086,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2094,28 +2112,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2127,31 +2145,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2200,7 +2218,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2217,7 +2235,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2233,7 +2251,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2266,7 +2284,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2309,11 +2327,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2349,7 +2367,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2365,7 +2383,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,11 +2525,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2547,7 +2565,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2639,11 +2657,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2893,7 +2911,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2910,7 +2928,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2959,7 +2977,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3025,7 +3043,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3141,7 +3159,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3289,7 +3307,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3322,7 +3340,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3388,7 +3406,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3553,13 +3571,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3586,7 +3604,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,11 +3614,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,31 +3696,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,11 +3944,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4015,7 +4033,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,7 +4059,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,7 +4092,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,11 +4175,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4318,18 +4336,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,31 +4356,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,28 +4389,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4404,7 +4422,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>287</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>289</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,11 +4670,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,7 +4719,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4718,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,49 +4934,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>7565.1350000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>307</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>308</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>309</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>271</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>21</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>208</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>310</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>187</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>21</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>146</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>311</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>312</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>21</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>228</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>7811.1350000000002</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>313</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>314</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>315</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5477,10 +5594,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -308,6 +317,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COXRITOR 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -335,9 +356,6 @@
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -638,9 +656,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -692,12 +707,18 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -770,6 +791,15 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>THIOTACID COMPOUND 300MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>109.50</t>
+  </si>
+  <si>
+    <t>36.1350</t>
+  </si>
+  <si>
     <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
   </si>
   <si>
@@ -950,7 +980,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 9:44 PM</t>
+    <t>Saturday, 20 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2020,7 +2050,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2037,7 +2067,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2053,7 +2083,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,14 +2093,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2103,7 +2133,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2119,7 +2149,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,11 +2159,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2145,28 +2175,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2178,31 +2208,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,14 +2241,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2235,7 +2265,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,7 +2298,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2284,7 +2314,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2317,7 +2347,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2350,7 +2380,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,14 +2390,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2400,7 +2430,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2416,7 +2446,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,11 +2456,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2466,7 +2496,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2482,7 +2512,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2499,7 +2529,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2529,10 +2559,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2631,7 +2661,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,11 +2720,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,11 +2753,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2845,7 +2875,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2937,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2977,7 +3007,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2994,7 +3024,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3010,7 +3040,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3043,7 +3073,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3060,7 +3090,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3076,7 +3106,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3109,7 +3139,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,14 +3149,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3135,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3168,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3215,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3231,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3225,7 +3255,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,11 +3512,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3498,7 +3528,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3515,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3581,14 +3611,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,28 +3660,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,11 +3710,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3703,7 +3733,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3743,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,7 +3759,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3746,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,24 +3799,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3802,7 +3832,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3835,7 +3865,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3861,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3924,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,28 +3990,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3993,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,11 +4040,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,11 +4073,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4059,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4106,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4092,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4132,7 +4162,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,11 +4172,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4158,7 +4188,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4175,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,11 +4271,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4257,7 +4287,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4274,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,7 +4320,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4307,11 +4337,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4323,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,7 +4370,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4363,7 +4393,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4377,10 +4407,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,7 +4452,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4435,15 +4465,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4455,31 +4485,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4495,24 +4525,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4528,24 +4558,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4634,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>41</v>
@@ -4620,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,11 +4667,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4653,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>295</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,11 +4799,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4785,14 +4815,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,11 +4832,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4818,7 +4848,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4835,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>303</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4858,7 +4888,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4917,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,11 +4964,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4950,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4983,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,11 +5030,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5016,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,49 +5063,181 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>7811.1350000000002</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>313</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>314</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>315</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>318</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>12</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>21</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>214</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>319</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>281</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>21</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>214</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>320</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>193</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>21</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>152</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>321</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>322</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>21</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>62</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7904.0600000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>323</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>324</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>325</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5609,10 +5771,30 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>DECLOPHEN 100MG 5 SUPP</t>
   </si>
   <si>
@@ -707,6 +716,15 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t>RELACOMP SPRAY</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -800,6 +818,15 @@
     <t>36.1350</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
   </si>
   <si>
@@ -836,6 +863,9 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -890,9 +920,6 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
@@ -980,7 +1007,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:25 PM</t>
+    <t>Saturday, 20 September, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2545,7 +2572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2578,7 +2605,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2588,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2611,7 +2638,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2743,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2776,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2786,11 +2813,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2819,7 +2846,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2842,7 +2869,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2852,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2875,7 +2902,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2908,7 +2935,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2941,7 +2968,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3040,7 +3067,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3073,7 +3100,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3090,7 +3117,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3106,7 +3133,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3123,7 +3150,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3139,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3205,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3215,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3264,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3321,7 +3348,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3380,11 +3407,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3479,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,7 +3539,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3535,7 +3562,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,11 +3572,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,11 +3605,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3601,7 +3628,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,11 +3671,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3677,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3710,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3726,28 +3753,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3766,13 +3793,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3780,7 +3807,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3792,31 +3819,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,31 +3852,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3865,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,11 +3902,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,7 +3935,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3964,7 +3991,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3990,20 +4017,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4014,7 +4041,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4030,21 +4057,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4056,31 +4083,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4139,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,7 +4305,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,10 +4335,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4353,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4393,7 +4420,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4426,7 +4453,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4502,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,11 +4595,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4584,7 +4611,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4597,18 +4624,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,31 +4644,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,28 +4677,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4690,24 +4717,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4793,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>41</v>
@@ -4782,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4826,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4815,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4848,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,11 +4958,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4947,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4980,7 +5007,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4997,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5013,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,14 +5057,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>138</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5086,7 +5113,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5112,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5145,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5189,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5178,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,49 +5222,181 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7904.0600000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>323</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>324</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>325</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>327</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>21</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>217</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>328</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>291</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>21</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>217</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>329</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>196</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>21</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>155</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>330</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>331</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>21</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>62</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>8209.5699999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>332</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>333</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>334</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5791,10 +5950,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -578,6 +578,9 @@
     <t>966.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -809,6 +812,15 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>THIOTACID COMPOUND 300MG 30 CAPS</t>
   </si>
   <si>
@@ -872,6 +884,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ايفا بديل زيت</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -929,15 +950,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>زيت جونسون كبير</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>زيت نونو 200مل</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1001,13 +1025,19 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:27 PM</t>
+    <t>Saturday, 20 September, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3397,7 +3427,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3437,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3453,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,11 +3470,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3456,14 +3486,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,14 +3503,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3489,14 +3519,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3506,14 +3536,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3522,14 +3552,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3555,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,11 +3602,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3588,14 +3618,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,11 +3635,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3628,7 +3658,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,11 +3668,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3654,14 +3684,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,11 +3734,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3727,7 +3757,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,14 +3767,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3753,7 +3783,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3770,11 +3800,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3793,21 +3823,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3819,28 +3849,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3852,31 +3882,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,31 +3915,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,14 +3948,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,11 +3965,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3951,14 +3981,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,11 +3998,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3984,7 +4014,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4001,11 +4031,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4017,14 +4047,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4064,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,31 +4080,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,14 +4113,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,31 +4146,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4149,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,11 +4196,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4182,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,14 +4229,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4215,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4262,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,11 +4295,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4288,7 +4318,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,7 +4344,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4331,14 +4361,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,7 +4377,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4364,14 +4394,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,7 +4410,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4397,11 +4427,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4413,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4460,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4446,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4559,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4575,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4592,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,14 +4608,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,11 +4625,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4611,14 +4641,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4658,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4674,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4691,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4694,14 +4724,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,7 +4773,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4756,15 +4786,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4776,31 +4806,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,11 +4856,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4842,7 +4872,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4859,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,14 +4938,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4955,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4998,7 +5028,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5014,7 +5044,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5054,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>312</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,14 +5070,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,14 +5087,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>314</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,14 +5103,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,11 +5120,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5106,14 +5136,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5153,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5139,7 +5169,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5156,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,14 +5219,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,14 +5235,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,11 +5252,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5238,14 +5268,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,11 +5285,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5278,7 +5308,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,11 +5318,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5304,14 +5334,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,11 +5351,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5337,14 +5367,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,49 +5384,214 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>8209.5699999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>332</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>333</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>334</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>335</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>21</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>218</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>336</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>298</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>21</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>218</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>337</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>197</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>21</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>155</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>338</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>339</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>21</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>257</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>340</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>341</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>21</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>62</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>8554.5699999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>342</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>343</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>344</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5970,10 +6165,35 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 10:55 PM</t>
+    <t>Saturday, 20 September, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
     <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -518,6 +524,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -746,18 +764,12 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>93.0000</t>
   </si>
   <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -878,6 +890,18 @@
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>224.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -917,6 +941,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -962,24 +992,24 @@
     <t>زيت نونو 200مل</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -1019,9 +1049,18 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -1037,7 +1076,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:02 PM</t>
+    <t>Saturday, 20 September, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1816,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1787,14 +1826,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1803,14 +1842,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1827,7 +1866,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1860,7 +1899,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1869,14 +1908,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1886,14 +1925,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1902,14 +1941,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1919,11 +1958,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1935,14 +1974,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1952,14 +1991,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1968,14 +2007,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1992,7 +2031,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2008,7 +2047,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2018,14 +2057,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2034,14 +2073,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2058,7 +2097,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2074,7 +2113,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2107,7 +2146,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2124,7 +2163,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2140,7 +2179,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2157,7 +2196,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2173,7 +2212,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2183,14 +2222,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2223,7 +2262,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2239,7 +2278,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2249,11 +2288,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2265,28 +2304,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2298,31 +2337,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2355,7 +2394,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,7 +2427,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2404,7 +2443,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2437,7 +2476,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2470,7 +2509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2480,14 +2519,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2496,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2513,14 +2552,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2529,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2569,7 +2608,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2602,7 +2641,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2635,7 +2674,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2645,14 +2684,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2668,7 +2707,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2678,11 +2717,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2701,7 +2740,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2711,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2727,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2744,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2760,14 +2799,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2777,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2793,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2810,14 +2849,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2833,7 +2872,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2843,11 +2882,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2859,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2876,7 +2915,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2899,7 +2938,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2909,11 +2948,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2925,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2942,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2958,14 +2997,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2975,14 +3014,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2991,14 +3030,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3008,14 +3047,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3024,14 +3063,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3041,14 +3080,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3057,14 +3096,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3074,14 +3113,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3090,14 +3129,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,11 +3146,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3123,14 +3162,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3140,11 +3179,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3156,14 +3195,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,14 +3212,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3189,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3206,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3222,14 +3261,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,11 +3278,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3255,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3279,7 +3318,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3295,7 +3334,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3305,14 +3344,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3321,14 +3360,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,11 +3377,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3354,14 +3393,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3371,14 +3410,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3387,14 +3426,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3411,7 +3450,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3427,7 +3466,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,14 +3476,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3453,7 +3492,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3470,14 +3509,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,14 +3525,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3503,14 +3542,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3519,14 +3558,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3536,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3552,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3569,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3585,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3602,14 +3641,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3618,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3635,11 +3674,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3651,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,11 +3707,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3684,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,11 +3740,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3717,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3750,14 +3789,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3806,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3783,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3816,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3833,14 +3872,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3849,28 +3888,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3882,14 +3921,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3899,11 +3938,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3915,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3932,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3948,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3965,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3981,31 +4020,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4014,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4031,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4047,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4064,7 +4103,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4087,7 +4126,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4097,14 +4136,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4113,31 +4152,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4146,20 +4185,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4170,7 +4209,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4186,21 +4225,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4212,31 +4251,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4245,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4285,7 +4324,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4318,7 +4357,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4344,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4384,7 +4423,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4394,14 +4433,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4410,7 +4449,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4427,14 +4466,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4443,7 +4482,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4460,14 +4499,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4476,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,11 +4532,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4509,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4526,11 +4565,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4542,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4559,14 +4598,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4575,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4592,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4608,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4625,14 +4664,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4641,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4658,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4674,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4691,11 +4730,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4707,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4724,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4740,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4757,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4780,7 +4819,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4806,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4839,28 +4878,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4872,20 +4911,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4896,7 +4935,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4912,24 +4951,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4938,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4955,7 +4994,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4978,7 +5017,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4995,7 +5034,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5021,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5037,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5093,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5087,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5103,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5120,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5153,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>320</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5219,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>322</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5242,7 +5281,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5252,11 +5291,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5275,7 +5314,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5285,11 +5324,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5301,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5318,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5334,14 +5373,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5351,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5384,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5400,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5417,11 +5456,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5440,7 +5479,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5450,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5466,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5483,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>156</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5499,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5516,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5532,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5549,49 +5588,280 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>8554.5699999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>342</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>343</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>344</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>345</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>21</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>224</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>346</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>40</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>21</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>224</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>347</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>306</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>21</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>224</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>348</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>349</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>21</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>45</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>203</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>21</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>157</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>351</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>352</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>21</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>261</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>353</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>354</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>21</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>65</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>8929.9200000000001</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>355</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>356</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>357</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6190,10 +6460,45 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACRETIN 0.05% CREAM 30 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -635,261 +644,264 @@
     <t>57.00</t>
   </si>
   <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEDEXAFLAM 15MG 12 SUPP.</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCOTEC 300MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 20MG 14 CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOCHEL  TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t>RELACOMP SPRAY</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STARKOPREX 5MG 30 TABS</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID COMPOUND 300MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>109.50</t>
+  </si>
+  <si>
+    <t>36.1350</t>
+  </si>
+  <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
     <t>57.0000</t>
   </si>
   <si>
-    <t>MEDEXAFLAM 15MG 12 SUPP.</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUCOTEC 300MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 20MG 14 CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOCHEL  TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>59.5200</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>75.2000</t>
-  </si>
-  <si>
-    <t>RELACOMP SPRAY</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>RENAL S-N 12 SACHET</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>STARKOPREX 5MG 30 TABS</t>
-  </si>
-  <si>
-    <t>252.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 400MG 5 TAB</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID COMPOUND 300MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>109.50</t>
-  </si>
-  <si>
-    <t>36.1350</t>
-  </si>
-  <si>
-    <t>TRYPSALIN PLUS 30 TABS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -902,6 +914,9 @@
     <t>224.0000</t>
   </si>
   <si>
+    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -1076,7 +1091,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:14 PM</t>
+    <t>Saturday, 20 September, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1734,7 +1749,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1776,31 +1791,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1809,20 +1824,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1833,7 +1848,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1849,7 +1864,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1899,7 +1914,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1915,7 +1930,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1948,7 +1963,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1998,7 +2013,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2014,7 +2029,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2064,7 +2079,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2080,7 +2095,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2130,7 +2145,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2146,7 +2161,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2163,7 +2178,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2179,7 +2194,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2196,7 +2211,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2212,7 +2227,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2229,7 +2244,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2245,7 +2260,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2295,7 +2310,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2311,7 +2326,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2337,31 +2352,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2370,31 +2385,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2443,7 +2458,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2460,7 +2475,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2476,7 +2491,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2493,7 +2508,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2509,7 +2524,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2526,7 +2541,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2542,7 +2557,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2625,7 +2640,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2641,7 +2656,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2658,7 +2673,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2674,7 +2689,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2691,7 +2706,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2707,7 +2722,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2740,7 +2755,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2773,7 +2788,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2898,7 +2913,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3004,7 +3019,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3037,7 +3052,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3070,7 +3085,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3103,7 +3118,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3113,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3186,7 +3201,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3202,7 +3217,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3219,7 +3234,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3235,7 +3250,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3252,7 +3267,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3268,7 +3283,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3285,7 +3300,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3301,7 +3316,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3351,7 +3366,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3367,7 +3382,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3384,7 +3399,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3400,7 +3415,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3410,14 +3425,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3483,7 +3498,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3499,7 +3514,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3516,7 +3531,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3532,7 +3547,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3763,7 +3778,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3773,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3789,7 +3804,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3829,7 +3844,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,14 +3854,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3855,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,14 +3887,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3888,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,14 +3920,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3928,7 +3943,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,14 +3953,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3954,31 +3969,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3994,13 +4009,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -4008,10 +4023,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4020,31 +4035,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4053,31 +4068,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4093,7 +4108,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4159,7 +4174,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4176,7 +4191,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4192,7 +4207,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4218,20 +4233,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4242,7 +4257,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4258,13 +4273,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4275,7 +4290,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4291,24 +4306,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4317,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4350,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4367,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4383,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4416,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4489,7 +4504,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4506,7 +4521,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4522,7 +4537,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4539,7 +4554,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4555,7 +4570,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4569,10 +4584,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4581,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4621,7 +4636,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4638,7 +4653,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4654,7 +4669,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4671,7 +4686,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4687,7 +4702,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4704,7 +4719,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4720,7 +4735,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4737,7 +4752,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4753,7 +4768,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4763,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4779,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4796,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4819,7 +4834,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4845,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4878,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4911,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4951,7 +4966,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4977,31 +4992,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5017,24 +5032,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,31 +5058,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5076,7 +5091,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5089,18 +5104,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5122,15 +5137,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5142,31 +5157,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5188,18 +5203,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,31 +5223,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5254,18 +5269,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5274,28 +5289,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5307,31 +5322,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,31 +5355,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5373,31 +5388,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5413,24 +5428,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5439,20 +5454,20 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5460,10 +5475,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,31 +5487,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5512,24 +5527,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5545,13 +5560,13 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5559,10 +5574,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,31 +5586,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,7 +5619,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5617,18 +5632,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>66</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5637,31 +5652,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5670,31 +5685,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5703,31 +5718,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5736,31 +5751,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5769,31 +5784,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5802,66 +5817,132 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>354</v>
+        <v>206</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>8929.9200000000001</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>355</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>356</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
         <v>357</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>25</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>264</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>358</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>359</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>25</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>68</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>9080.9200000000001</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>360</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>361</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>362</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6495,10 +6576,20 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>148.00</t>
   </si>
   <si>
-    <t>148.0000</t>
+    <t>296.0000</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -1091,7 +1091,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:18 PM</t>
+    <t>Saturday, 20 September, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4653,7 +4653,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -5912,7 +5912,7 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>9080.9200000000001</v>
+        <v>9228.9200000000001</v>
       </c>
       <c r="Q134" s="13"/>
     </row>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -1091,7 +1091,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:19 PM</t>
+    <t>Saturday, 20 September, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -98,48 +98,51 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
     <t>61.3800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -251,6 +251,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -518,12 +527,6 @@
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -698,132 +701,135 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
+    <t>155.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t>RELACOMP SPRAY</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>STARKOPREX 5MG 30 TABS</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
     <t>124.0000</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>59.5200</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>75.2000</t>
-  </si>
-  <si>
-    <t>RELACOMP SPRAY</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>RENAL S-N 12 SACHET</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>STARKOPREX 5MG 30 TABS</t>
-  </si>
-  <si>
-    <t>252.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 400MG 5 TAB</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -905,13 +911,13 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>56.00</t>
   </si>
   <si>
-    <t>224.0000</t>
+    <t>392.0000</t>
   </si>
   <si>
     <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
@@ -1019,7 +1025,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1091,7 +1100,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:20 PM</t>
+    <t>Saturday, 20 September, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1881,7 +1890,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1907,11 +1916,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1940,11 +1949,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>24</v>
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1989,14 +1998,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2006,11 +2015,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -2022,7 +2031,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2039,11 +2048,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2072,11 +2081,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2154,7 +2163,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2171,11 +2180,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2220,7 +2229,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2237,11 +2246,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -2253,7 +2262,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2270,11 +2279,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2359,7 +2368,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2385,28 +2394,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2418,31 +2427,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2451,14 +2460,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2475,7 +2484,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2508,7 +2517,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2557,7 +2566,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2590,7 +2599,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2689,7 +2698,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2722,7 +2731,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2755,7 +2764,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2821,7 +2830,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2831,14 +2840,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2963,7 +2972,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2986,7 +2995,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2996,11 +3005,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3029,7 +3038,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3052,7 +3061,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3151,7 +3160,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3250,7 +3259,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3283,7 +3292,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3300,7 +3309,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3425,11 +3434,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3613,7 +3622,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,11 +3665,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,11 +3764,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3804,7 +3813,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3854,11 +3863,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3943,7 +3952,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3969,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4009,21 +4018,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4035,28 +4044,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4068,31 +4077,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,31 +4110,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,11 +4160,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>24</v>
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -4200,7 +4209,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4217,11 +4226,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,31 +4275,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4332,31 +4341,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4504,7 +4513,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,7 +4539,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,7 +4572,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4596,7 +4605,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4613,11 +4622,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4728,7 +4737,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>24</v>
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4834,7 +4843,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4900,7 +4909,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4933,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4966,7 +4975,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,11 +5051,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5065,21 +5074,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5197,7 +5206,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5230,7 +5239,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5381,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,11 +5414,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5461,7 +5470,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5475,10 +5484,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>336</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>85</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5560,7 +5569,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>155</v>
+        <v>342</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,11 +5579,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,11 +5612,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5626,7 +5635,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5659,7 +5668,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5678,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5817,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,11 +5843,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,11 +5876,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5883,14 +5892,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,49 +5909,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>9228.9200000000001</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>360</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>361</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
         <v>362</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>25</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>69</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>9493.3600000000006</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>363</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>364</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>365</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6586,10 +6628,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -515,6 +515,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -578,6 +587,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>GYNOCONAZOL 80MG 3 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -866,6 +884,12 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
   </si>
   <si>
@@ -1100,7 +1124,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:23 PM</t>
+    <t>Saturday, 20 September, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3292,7 +3316,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3325,7 +3349,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3335,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3351,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3368,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3391,7 +3415,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3417,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3441,7 +3465,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3490,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3524,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3516,14 +3540,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,7 +3573,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3566,11 +3590,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3606,7 +3630,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3622,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3648,7 +3672,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3665,14 +3689,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3681,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,14 +3722,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3714,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3731,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3747,14 +3771,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,14 +3788,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3780,14 +3804,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3801,10 +3825,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3830,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3846,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3863,11 +3887,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3879,14 +3903,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3912,7 +3936,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3929,14 +3953,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3945,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,14 +3986,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4028,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4044,28 +4068,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4077,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,11 +4118,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4110,7 +4134,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4176,31 +4200,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4242,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,7 +4283,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4282,7 +4306,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4292,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4308,31 +4332,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4341,20 +4365,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4365,7 +4389,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4381,21 +4405,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4407,31 +4431,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4473,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4506,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4572,14 +4596,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4629,7 +4653,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4662,7 +4686,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4678,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4695,7 +4719,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4711,7 +4735,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4744,7 +4768,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4761,7 +4785,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4777,7 +4801,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4794,7 +4818,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4810,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4827,7 +4851,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4843,7 +4867,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4869,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4886,7 +4910,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4909,7 +4933,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,7 +4992,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4985,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5001,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5018,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>128</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5041,7 +5065,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5067,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,11 +5108,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,31 +5124,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>308</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5133,28 +5157,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5173,24 +5197,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5223,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,7 +5240,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5239,7 +5263,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,11 +5273,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5265,14 +5289,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5282,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5298,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5371,7 +5395,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5381,14 +5405,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5404,7 +5428,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,7 +5520,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5513,14 +5537,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>339</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,14 +5553,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,14 +5570,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5562,14 +5586,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5583,10 +5607,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5602,7 +5626,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5616,10 +5640,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5628,7 +5652,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5645,14 +5669,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5668,7 +5692,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,11 +5702,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5701,7 +5725,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,11 +5735,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5727,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,11 +5768,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5760,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5801,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,14 +5817,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5834,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5826,14 +5850,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5859,14 +5883,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,11 +5933,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5925,14 +5949,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,49 +5966,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>9493.3600000000006</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>363</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>364</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>365</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>366</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>213</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>25</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>163</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>367</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>368</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>25</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>271</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>369</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>370</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>25</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>69</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>9635.3600000000006</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>371</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>372</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>373</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6633,10 +6756,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -710,6 +719,9 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>OMEPURE ORAL DPS 10 ML</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -725,10 +737,16 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
@@ -797,6 +815,9 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1124,7 +1145,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:24 PM</t>
+    <t>Saturday, 20 September, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2326,13 +2347,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2343,7 +2364,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2359,7 +2380,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2376,7 +2397,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2409,7 +2430,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2425,7 +2446,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2451,28 +2472,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2541,7 +2562,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2574,7 +2595,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2590,7 +2611,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2623,7 +2644,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2656,7 +2677,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,14 +2720,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2755,7 +2776,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2788,7 +2809,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2821,7 +2842,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2854,7 +2875,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,11 +2885,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2887,7 +2908,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3029,7 +3050,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -3052,7 +3073,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3062,11 +3083,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,7 +3116,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3118,7 +3139,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3151,7 +3172,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3184,7 +3205,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3217,7 +3238,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3316,7 +3337,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3349,7 +3370,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3382,7 +3403,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,14 +3446,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3448,7 +3469,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3498,7 +3519,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3547,7 +3568,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3597,7 +3618,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3613,7 +3634,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3623,11 +3644,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3696,7 +3717,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3712,7 +3733,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3722,14 +3743,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3755,14 +3776,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3788,11 +3809,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3804,14 +3825,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3821,14 +3842,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3887,11 +3908,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3903,14 +3924,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3920,14 +3941,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,11 +4007,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4009,7 +4030,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4019,14 +4040,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,11 +4073,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>24</v>
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4118,11 +4139,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4134,28 +4155,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4174,13 +4195,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4188,7 +4209,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4200,31 +4221,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4240,7 +4261,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4254,10 +4275,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4266,31 +4287,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4299,14 +4320,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4323,7 +4344,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,14 +4353,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,7 +4370,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4372,7 +4393,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4403,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,31 +4419,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4431,20 +4452,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4455,7 +4476,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4471,21 +4492,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4497,31 +4518,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4530,14 +4551,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,14 +4568,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4563,14 +4584,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,11 +4601,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4596,14 +4617,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,11 +4634,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4629,14 +4650,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,11 +4667,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>24</v>
@@ -4662,14 +4683,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,14 +4700,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4702,7 +4723,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4712,11 +4733,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4728,7 +4749,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4745,14 +4766,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4761,14 +4782,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,14 +4799,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4794,14 +4815,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,11 +4832,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4865,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4931,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4964,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +4980,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +4997,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4999,7 +5020,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,11 +5030,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5025,14 +5046,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5063,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5065,7 +5086,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,14 +5096,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5108,11 +5129,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5124,14 +5145,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,14 +5162,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>308</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5157,14 +5178,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,14 +5195,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5197,7 +5218,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,7 +5228,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5230,24 +5251,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5256,28 +5277,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5289,31 +5310,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5322,14 +5343,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5339,11 +5360,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5355,14 +5376,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5372,11 +5393,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5395,7 +5416,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,7 +5426,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5428,7 +5449,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,14 +5459,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5454,14 +5475,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,14 +5492,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5487,14 +5508,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,14 +5525,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,14 +5541,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5544,7 +5565,7 @@
         <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5560,7 +5581,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,14 +5591,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5593,7 +5614,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5603,14 +5624,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>90</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5619,7 +5640,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5636,14 +5657,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5659,7 +5680,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,14 +5690,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5692,7 +5713,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,14 +5723,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5718,14 +5739,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5735,14 +5756,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,7 +5772,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5768,14 +5789,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5784,14 +5805,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5805,7 +5826,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5817,14 +5838,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,11 +5855,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5857,7 +5878,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,11 +5888,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5883,14 +5904,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5900,11 +5921,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5916,14 +5937,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5933,11 +5954,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5949,14 +5970,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5966,11 +5987,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5982,14 +6003,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5999,11 +6020,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6015,14 +6036,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6032,11 +6053,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>337</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6048,14 +6069,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6065,49 +6086,148 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>9635.3600000000006</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>371</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>372</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>373</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>216</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>25</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>166</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>374</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>375</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>25</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>278</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>376</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>377</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>25</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>69</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>9893.3600000000006</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>378</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>379</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>380</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6771,10 +6891,25 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-20_00-00.xlsx
+++ b/DaySale_2025-09-20_00-00.xlsx
@@ -1145,7 +1145,7 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>Saturday, 20 September, 2025 11:31 PM</t>
+    <t>Saturday, 20 September, 2025 11:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
